--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1696808.487060586</v>
+        <v>1699132.158874454</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5610315.203881408</v>
+        <v>5610315.203881407</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>31.83109803682869</v>
       </c>
       <c r="G2" t="n">
-        <v>35.18454619735122</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -735,64 +737,64 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>46.38724422570588</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,67 +822,67 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>180.1159031720508</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.2120941396708</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>131.4303910344457</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17354161800005</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>210.1515323233967</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1262,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>106.3791823245519</v>
       </c>
       <c r="Y9" t="n">
-        <v>58.92947406989641</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1412,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>51.45858435246182</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>16.16726461546785</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>152.3878995204394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,73 +1843,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1926,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1941,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>145.4467082856156</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>213.7435569254095</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>22.53500625286609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2181,7 +2183,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>19.16040078371821</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2400,19 +2402,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>52.89562800289951</v>
+        <v>43.79331538974423</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>44.08176337665909</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>33.80371536444976</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>16.62595824202289</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3038,58 +3040,58 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="U33" t="n">
-        <v>72.87685072029042</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>82.46119763909357</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D36" t="n">
-        <v>89.33471968720919</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3566,10 +3568,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>142.0543828173919</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>57.10537825176753</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,58 +3669,58 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>241.0142888776591</v>
@@ -3752,7 +3754,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>41.41746221848933</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>65.1337105787572</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4307,43 +4309,43 @@
         <v>159.9970564337892</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F2" t="n">
-        <v>51.89093722176946</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
-      </c>
-      <c r="L2" t="n">
-        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
@@ -4425,34 +4427,34 @@
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>84.76023320505688</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
         <v>4.28100232079598</v>
@@ -4516,22 +4518,22 @@
         <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>772.0302844130649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>528.5815077689649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>285.1327311248648</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.87921799876909</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4647,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>226.0945550188371</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>226.0945550188371</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X6" t="n">
-        <v>226.0945550188371</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y6" t="n">
-        <v>226.0945550188371</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="7">
@@ -4753,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X9" t="n">
-        <v>226.0945550188371</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4990,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>637.4919134814011</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>637.4919134814011</v>
       </c>
       <c r="V12" t="n">
-        <v>846.5570557448675</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="W12" t="n">
-        <v>603.1082791007675</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X12" t="n">
-        <v>395.2567788952347</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.4964801302808</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>110.334904905842</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D15" t="n">
-        <v>110.334904905842</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>110.334904905842</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>278.55024192591</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>742.8341567219593</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="V18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="W18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y18" t="n">
-        <v>817.1412885554689</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="C21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F21" t="n">
-        <v>246.4666730769152</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>771.2858707757312</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>771.2858707757312</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="X21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.4666730769152</v>
+        <v>536.1337625439884</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>343.8760884571613</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C24" t="n">
-        <v>211.4418958032533</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>813.1585848204618</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>813.1585848204618</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>813.1585848204618</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>569.7098081763618</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>569.7098081763618</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>929.9119884758385</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>718.7806050553886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>718.7806050553886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>846.0937288493574</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>617.8701105857464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>617.8701105857464</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>374.4213339416463</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>166.5698337361135</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J31" t="n">
         <v>829.5248650203655</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.5185981156682</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="U33" t="n">
-        <v>413.6707063474109</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="V33" t="n">
-        <v>178.5185981156682</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="W33" t="n">
-        <v>178.5185981156682</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X33" t="n">
-        <v>178.5185981156682</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y33" t="n">
-        <v>178.5185981156682</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.725395637266</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>110.272366356139</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>452.9407326573341</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7193,28 +7195,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>306.7479305775371</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>168.0171051601526</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="43">
@@ -7600,16 +7602,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>481.3994074699755</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C45" t="n">
-        <v>306.9463781888485</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D45" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7733,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>898.2655286634067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>724.8481841140756</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>481.3994074699755</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>481.3994074699755</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>481.3994074699755</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
@@ -8067,16 +8069,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23300,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>148.7061443423598</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>216.6333225339574</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.2736845391249</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>53.29479625686497</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>353.409164975715</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23814,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23829,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.71802040920599</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>12.19782515556528</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24014,25 +24016,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129382</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>114.8085109103446</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0043279111034</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24169,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>334.968030499315</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,19 +24253,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24288,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.54943756173924</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>122.4514202732082</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>50.77514371154891</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>183.5387704527987</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,10 +24858,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24965,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,13 +25049,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>82.34845141662868</v>
       </c>
       <c r="U33" t="n">
-        <v>153.0645313606844</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>140.6346519250378</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D36" t="n">
-        <v>58.11034587742957</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25454,10 +25456,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>15.59069763800903</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>55.13006598472893</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>140.9160811946027</v>
@@ -25640,7 +25642,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>22.23186360206134</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.02412357388593</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357304.9908874368</v>
+        <v>357304.9908874366</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357304.9908874367</v>
+        <v>357304.9908874366</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357304.9908874366</v>
+        <v>357304.9908874367</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357304.9908874368</v>
+        <v>357304.9908874367</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357304.9908874366</v>
+        <v>357304.9908874367</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357304.9908874366</v>
+        <v>357304.9908874367</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357304.9908874366</v>
+        <v>357304.9908874367</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
@@ -26323,22 +26325,22 @@
         <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="H2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="I2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="J2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
@@ -26347,10 +26349,10 @@
         <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335761.7110049645</v>
+        <v>335761.7110049646</v>
       </c>
       <c r="C4" t="n">
         <v>287492.6387038018</v>
@@ -26424,19 +26426,19 @@
         <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26448,13 +26450,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
         <v>8547.111069342402</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184153.0868768273</v>
+        <v>184153.0868768274</v>
       </c>
       <c r="C6" t="n">
-        <v>178379.0092507665</v>
+        <v>178379.0092507667</v>
       </c>
       <c r="D6" t="n">
         <v>238955.3314374347</v>
@@ -26531,10 +26533,10 @@
         <v>209424.1617107613</v>
       </c>
       <c r="F6" t="n">
-        <v>209424.1617107612</v>
+        <v>209424.1617107613</v>
       </c>
       <c r="G6" t="n">
-        <v>209424.1617107614</v>
+        <v>209424.1617107613</v>
       </c>
       <c r="H6" t="n">
         <v>209424.1617107613</v>
@@ -26555,10 +26557,10 @@
         <v>209424.1617107613</v>
       </c>
       <c r="N6" t="n">
-        <v>209424.1617107612</v>
+        <v>209424.1617107613</v>
       </c>
       <c r="O6" t="n">
-        <v>209424.1617107612</v>
+        <v>209424.1617107613</v>
       </c>
       <c r="P6" t="n">
         <v>209424.1617107613</v>
@@ -27379,7 +27381,7 @@
         <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>375.0449477048828</v>
       </c>
       <c r="G2" t="n">
-        <v>380.1181913177838</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.0308931428578</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>120.2720530811006</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27588,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>201.783679862813</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>71.2297497357857</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>134.4964048486449</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>74.25230474285866</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>117.6007261467382</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>99.39380287892556</v>
       </c>
       <c r="Y9" t="n">
-        <v>146.753221707408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>127.8627523801188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699132.158874454</v>
+        <v>1630280.862433017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.83109803682869</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.170977004479181</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,13 +946,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.4303910344457</v>
+        <v>165.3590478076768</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>210.1515323233967</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>30.95184914057959</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>106.3791823245519</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.737236172019017</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>51.45858435246182</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.9298661881966</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>114.4079392234113</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,73 +1843,73 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.87894234389536</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>213.7435569254095</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>19.16040078371821</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>109.3578762307425</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,46 +2247,46 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>43.79331538974423</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.08176337665909</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>37.46550281341295</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,59 +2797,59 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>43.85656727321212</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>110.8320796684431</v>
       </c>
       <c r="T33" t="n">
-        <v>117.8162772781929</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>57.10537825176753</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,59 +3745,59 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>41.41746221848933</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40.05333404350618</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,55 +3988,55 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>125.2132019625774</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>51.89093722176946</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
         <v>4.28100232079598</v>
@@ -4412,13 +4412,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
@@ -4427,34 +4427,34 @@
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="T3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.9060370580465</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y6" t="n">
-        <v>501.9060370580465</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4743,28 +4743,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
         <v>41.77557929797318</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>425.5489231905453</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>318.0952036707959</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C12" t="n">
         <v>20.03527576299844</v>
@@ -5126,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>637.4919134814011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4919134814011</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>402.3398052496583</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>402.3398052496583</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.4883050441255</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5226,25 +5226,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>743.5980286395683</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W14" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X14" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>135.5988507361412</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,19 +5363,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5390,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="16">
@@ -5454,13 +5454,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X17" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="C18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="D18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="E18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>36.07461146390284</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5627,19 +5627,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>271.3811041200179</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>271.3811041200179</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>271.3811041200179</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X18" t="n">
-        <v>271.3811041200179</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y18" t="n">
-        <v>271.3811041200179</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>536.1337625439884</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C21" t="n">
-        <v>361.6807332628614</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5843,40 +5843,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>771.2858707757312</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>771.2858707757312</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>536.1337625439884</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="W21" t="n">
-        <v>536.1337625439884</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X21" t="n">
-        <v>536.1337625439884</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y21" t="n">
-        <v>536.1337625439884</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6268,7 +6268,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
         <v>720.6083788665362</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>57.87921799876909</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W27" t="n">
-        <v>446.0215048700907</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X27" t="n">
-        <v>446.0215048700907</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y27" t="n">
-        <v>238.2612061051368</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>645.1707186119563</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>645.1707186119563</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>410.0186103802135</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="X30" t="n">
-        <v>176.4352409821462</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299844</v>
@@ -6785,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>750.9360304388319</v>
       </c>
       <c r="T33" t="n">
-        <v>570.4639408291474</v>
+        <v>548.7494357975979</v>
       </c>
       <c r="U33" t="n">
-        <v>570.4639408291474</v>
+        <v>548.7494357975979</v>
       </c>
       <c r="V33" t="n">
-        <v>570.4639408291474</v>
+        <v>548.7494357975979</v>
       </c>
       <c r="W33" t="n">
-        <v>570.4639408291474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X33" t="n">
-        <v>570.4639408291474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C36" t="n">
         <v>817.1412885554689</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7083,13 +7083,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X38" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627.7355178317791</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>453.2824885506521</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>453.2824885506521</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>453.2824885506521</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F39" t="n">
-        <v>306.7479305775371</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>168.0171051601526</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7368,16 +7368,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>795.8418184905681</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C42" t="n">
-        <v>621.3887892094411</v>
+        <v>345.004439675971</v>
       </c>
       <c r="D42" t="n">
-        <v>472.4543795481899</v>
+        <v>345.004439675971</v>
       </c>
       <c r="E42" t="n">
-        <v>313.2169245427344</v>
+        <v>345.004439675971</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>198.469881702856</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>59.73905628547149</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>59.73905628547149</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X42" t="n">
-        <v>964.0571555106362</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y42" t="n">
-        <v>964.0571555106362</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F44" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7739,13 +7739,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
@@ -7990,13 +7990,13 @@
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>222.4246658592332</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9491,7 +9491,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11387,16 +11387,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>405.565501343116</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>143.656081349691</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>148.7061443423598</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>51.30969674795439</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>43.23714123198964</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>93.55107118671071</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23785,19 +23785,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>73.51769050751972</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>12.19782515556528</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>324.4869424129382</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>181.0043279111034</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>123.4427109186827</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>103.6517501748945</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122.4514202732082</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>99.8780143497977</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,16 +24727,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>156.3081614216095</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.1001388840902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,10 +24858,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24922,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24967,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>60.85109143539476</v>
       </c>
       <c r="T33" t="n">
-        <v>82.34845141662868</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>302.2574731329353</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>21.08647536425173</v>
       </c>
       <c r="C36" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>116.0167947547591</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>55.13006598472893</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>103.6517501748945</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>49.3432988079089</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,10 +25949,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>22.23186360206134</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>25.50780978689276</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357304.9908874367</v>
+        <v>357304.9908874366</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357304.9908874367</v>
+        <v>357304.9908874366</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049983</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="E2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
@@ -26340,7 +26340,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
@@ -26352,10 +26352,10 @@
         <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335761.7110049646</v>
+        <v>335761.7110049645</v>
       </c>
       <c r="C4" t="n">
         <v>287492.6387038018</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184153.0868768274</v>
+        <v>184153.0868768276</v>
       </c>
       <c r="C6" t="n">
-        <v>178379.0092507667</v>
+        <v>178379.0092507668</v>
       </c>
       <c r="D6" t="n">
-        <v>238955.3314374347</v>
+        <v>238955.3314374348</v>
       </c>
       <c r="E6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907209</v>
       </c>
       <c r="F6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="G6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="H6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="I6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="J6" t="n">
-        <v>195422.929570482</v>
+        <v>183204.9189504415</v>
       </c>
       <c r="K6" t="n">
-        <v>161167.2087771287</v>
+        <v>148949.1981570882</v>
       </c>
       <c r="L6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="M6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907209</v>
       </c>
       <c r="N6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907209</v>
       </c>
       <c r="O6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
       <c r="P6" t="n">
-        <v>209424.1617107613</v>
+        <v>197206.1510907208</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>375.0449477048828</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>324.737194744175</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>153.0308931428578</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>201.783679862813</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>74.25230474285866</v>
+        <v>40.32364796962756</v>
       </c>
     </row>
     <row r="7">
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>283.1818162837787</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>117.6007261467382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>135.5813345092878</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>99.39380287892556</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387443</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
@@ -34710,13 +34710,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="L3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -38107,16 +38107,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
